--- a/exp/2022/Logbook_Eksperiment.xlsx
+++ b/exp/2022/Logbook_Eksperiment.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="186">
   <si>
     <t>Tanggal</t>
   </si>
@@ -564,6 +564,36 @@
   </si>
   <si>
     <t>exp-3_8</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Normalization Global (StandardScaler)</t>
+  </si>
+  <si>
+    <t>exp-4_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Normalization Global (StandardScaler)</t>
+  </si>
+  <si>
+    <t>exp-4_2</t>
+  </si>
+  <si>
+    <t>exp-4_3</t>
+  </si>
+  <si>
+    <t>exp-4_4</t>
+  </si>
+  <si>
+    <t>exp-4_5</t>
+  </si>
+  <si>
+    <t>exp-4_6</t>
+  </si>
+  <si>
+    <t>exp-4_7</t>
+  </si>
+  <si>
+    <t>exp-4_8</t>
   </si>
 </sst>
 </file>
@@ -3758,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4492,69 +4522,165 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+    <row r="37" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="3">
+        <v>52.76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="3">
+        <v>55.32</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="3">
+        <v>53.25</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="3">
+        <v>53.45</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="3">
+        <v>52.26</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="3">
+        <v>56.31</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="3">
+        <v>51.38</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="3">
+        <v>53.15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -4767,15 +4893,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E32C6C59-7111-4FF1-B57C-8954CAF8C697}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="f64f122a-13cb-4691-a415-cbf7b0e63df3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exp/2022/Logbook_Eksperiment.xlsx
+++ b/exp/2022/Logbook_Eksperiment.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="230">
   <si>
     <t>Tanggal</t>
   </si>
@@ -594,6 +594,138 @@
   </si>
   <si>
     <t>exp-4_8</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Normalization Global (MinMaxScaler)</t>
+  </si>
+  <si>
+    <t>exp-5_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Normalization Global (MinMaxScaler)</t>
+  </si>
+  <si>
+    <t>exp-5_2</t>
+  </si>
+  <si>
+    <t>exp-5_3</t>
+  </si>
+  <si>
+    <t>exp-5_4</t>
+  </si>
+  <si>
+    <t>exp-5_5</t>
+  </si>
+  <si>
+    <t>exp-5_6</t>
+  </si>
+  <si>
+    <t>exp-5_7</t>
+  </si>
+  <si>
+    <t>exp-5_8</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Normalization Dataset (MinMaxScaler)</t>
+  </si>
+  <si>
+    <t>exp-6_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Normalization Dataset (MinMaxScaler)</t>
+  </si>
+  <si>
+    <t>exp-6_2</t>
+  </si>
+  <si>
+    <t>exp-6_3</t>
+  </si>
+  <si>
+    <t>exp-6_4</t>
+  </si>
+  <si>
+    <t>exp-6_5</t>
+  </si>
+  <si>
+    <t>exp-6_7</t>
+  </si>
+  <si>
+    <t>exp-6_6</t>
+  </si>
+  <si>
+    <t>exp-6_8</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Normalization Dataset (StandardScaler)</t>
+  </si>
+  <si>
+    <t>exp-7_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Normalization Dataset (StandardScaler)</t>
+  </si>
+  <si>
+    <t>exp-7_2</t>
+  </si>
+  <si>
+    <t>exp-7_3</t>
+  </si>
+  <si>
+    <t>exp-7_4</t>
+  </si>
+  <si>
+    <t>exp-7_5</t>
+  </si>
+  <si>
+    <t>exp-7_6</t>
+  </si>
+  <si>
+    <t>exp-7_7</t>
+  </si>
+  <si>
+    <t>exp-7_8</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Normalization Global v2 (MinMaxScaler)</t>
+  </si>
+  <si>
+    <t>exp-8_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Normalization Global v2 (MinMaxScaler)</t>
+  </si>
+  <si>
+    <t>exp-8_2</t>
+  </si>
+  <si>
+    <t>exp-8_3</t>
+  </si>
+  <si>
+    <t>exp-8_4</t>
+  </si>
+  <si>
+    <t>exp-8_5</t>
+  </si>
+  <si>
+    <t>exp-8_6</t>
+  </si>
+  <si>
+    <t>exp-8_7</t>
+  </si>
+  <si>
+    <t>exp-8_8</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Normalization Global v2 (StandardScaler)</t>
+  </si>
+  <si>
+    <t>exp-9_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Normalization Global v2 (StandardScaler)</t>
+  </si>
+  <si>
+    <t>exp-9_2</t>
   </si>
 </sst>
 </file>
@@ -3786,10 +3918,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,61 +4814,685 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+    <row r="45" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="3">
+        <v>55.12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="3">
+        <v>51.47</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="3">
+        <v>53.74</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="3">
+        <v>49.01</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="3">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="3">
+        <v>50.49</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="3">
+        <v>49.01</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="3">
+        <v>49.01</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="3">
+        <v>65.08</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="3">
+        <v>60.35</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="3">
+        <v>62.32</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="3">
+        <v>57.88</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="3">
+        <v>55.52</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="3">
+        <v>56.21</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="3">
+        <v>59.76</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="3">
+        <v>62.91</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="3">
+        <v>57.28</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="3">
+        <v>57.69</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="3">
+        <v>52.07</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="3">
+        <v>54.53</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="3">
+        <v>58.18</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="3">
+        <v>54.63</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="3">
+        <v>57.49</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="3">
+        <v>53.15</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="3">
+        <v>64</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="3">
+        <v>61.73</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="3">
+        <v>63.41</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="3">
+        <v>61.63</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="3">
+        <v>58.18</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="3">
+        <v>61.04</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="3">
+        <v>58.97</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4893,15 +5649,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E32C6C59-7111-4FF1-B57C-8954CAF8C697}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f64f122a-13cb-4691-a415-cbf7b0e63df3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f64f122a-13cb-4691-a415-cbf7b0e63df3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exp/2022/Logbook_Eksperiment.xlsx
+++ b/exp/2022/Logbook_Eksperiment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7770" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Conf-1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="250">
   <si>
     <t>Tanggal</t>
   </si>
@@ -726,6 +726,66 @@
   </si>
   <si>
     <t>exp-9_2</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Noise_augment</t>
+  </si>
+  <si>
+    <t>exp-10_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Noise_augment</t>
+  </si>
+  <si>
+    <t>exp-10_2</t>
+  </si>
+  <si>
+    <t>exp-10_3</t>
+  </si>
+  <si>
+    <t>exp-10_4</t>
+  </si>
+  <si>
+    <t>exp-10_5</t>
+  </si>
+  <si>
+    <t>exp-10_6</t>
+  </si>
+  <si>
+    <t>exp-10_7</t>
+  </si>
+  <si>
+    <t>exp-10_8</t>
+  </si>
+  <si>
+    <t>exp-11_1</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Noise_augment, MinMaxScaler per Audio</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Noise_augment, MinMaxScaler per Audio</t>
+  </si>
+  <si>
+    <t>exp-11_2</t>
+  </si>
+  <si>
+    <t>exp-11_3</t>
+  </si>
+  <si>
+    <t>exp-11_4</t>
+  </si>
+  <si>
+    <t>exp-11_5</t>
+  </si>
+  <si>
+    <t>exp-11_6</t>
+  </si>
+  <si>
+    <t>exp-11_7</t>
+  </si>
+  <si>
+    <t>exp-11_8</t>
   </si>
 </sst>
 </file>
@@ -3918,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,6 +5552,326 @@
       </c>
       <c r="F78" s="3" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="3">
+        <v>55.71</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="3">
+        <v>63.31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="3">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="3">
+        <v>61.43</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="3">
+        <v>61.04</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="3">
+        <v>62.22</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="3">
+        <v>65.58</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="3">
+        <v>59.98</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="3">
+        <v>62.22</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="3">
+        <v>59.56</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="3">
+        <v>68.34</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="3">
+        <v>64.2</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="3">
+        <v>68.34</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="3">
+        <v>64.2</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="3">
+        <v>62.42</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="3">
+        <v>61.53</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5649,15 +6029,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E32C6C59-7111-4FF1-B57C-8954CAF8C697}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f64f122a-13cb-4691-a415-cbf7b0e63df3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exp/2022/Logbook_Eksperiment.xlsx
+++ b/exp/2022/Logbook_Eksperiment.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="260">
   <si>
     <t>Tanggal</t>
   </si>
@@ -786,6 +786,36 @@
   </si>
   <si>
     <t>exp-11_8</t>
+  </si>
+  <si>
+    <t>exp-12_8</t>
+  </si>
+  <si>
+    <t>Epoch 200, dropout 0.5, Noise_augment, StandardScaler per Audio</t>
+  </si>
+  <si>
+    <t>exp-12_7</t>
+  </si>
+  <si>
+    <t>Epoch 200, tanpa dropout 0.5, Noise_augment, StandardScaler per Audio</t>
+  </si>
+  <si>
+    <t>exp-12_6</t>
+  </si>
+  <si>
+    <t>exp-12_5</t>
+  </si>
+  <si>
+    <t>exp-12_4</t>
+  </si>
+  <si>
+    <t>exp-12_3</t>
+  </si>
+  <si>
+    <t>exp-12_2</t>
+  </si>
+  <si>
+    <t>exp-12_1</t>
   </si>
 </sst>
 </file>
@@ -3978,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5725,7 +5755,7 @@
         <v>120</v>
       </c>
       <c r="D87" s="3">
-        <v>62.22</v>
+        <v>65.08</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>241</v>
@@ -5745,7 +5775,7 @@
         <v>120</v>
       </c>
       <c r="D88" s="3">
-        <v>59.56</v>
+        <v>66.27</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>242</v>
@@ -5765,7 +5795,7 @@
         <v>125</v>
       </c>
       <c r="D89" s="3">
-        <v>68.34</v>
+        <v>62.91</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>241</v>
@@ -5785,7 +5815,7 @@
         <v>125</v>
       </c>
       <c r="D90" s="3">
-        <v>64.2</v>
+        <v>61.63</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>242</v>
@@ -5805,7 +5835,7 @@
         <v>128</v>
       </c>
       <c r="D91" s="3">
-        <v>68.34</v>
+        <v>54.63</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>241</v>
@@ -5825,7 +5855,7 @@
         <v>128</v>
       </c>
       <c r="D92" s="3">
-        <v>64.2</v>
+        <v>60.45</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>242</v>
@@ -5845,7 +5875,7 @@
         <v>131</v>
       </c>
       <c r="D93" s="3">
-        <v>62.42</v>
+        <v>65.48</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>241</v>
@@ -5865,13 +5895,173 @@
         <v>131</v>
       </c>
       <c r="D94" s="3">
-        <v>61.53</v>
+        <v>61.24</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="3">
+        <v>59.46</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="3">
+        <v>65.87</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="3">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="3">
+        <v>69.92</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="3">
+        <v>61.93</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="3">
+        <v>66.66</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>44607</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="3">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5880,21 +6070,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x0101007346F6C2146EA84CBA2F4D8BC73D7357" ma:contentTypeVersion="2" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="89b75c203c8b95e385c3e0a635bee6a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f64f122a-13cb-4691-a415-cbf7b0e63df3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8e2c71e10b84898e47d045e7c8622b2" ns3:_="">
     <xsd:import namespace="f64f122a-13cb-4691-a415-cbf7b0e63df3"/>
@@ -6026,31 +6201,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E32C6C59-7111-4FF1-B57C-8954CAF8C697}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f64f122a-13cb-4691-a415-cbf7b0e63df3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA76881E-98BC-41CA-9041-9436D25A75CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBEE55AA-2EE2-4872-BC14-B0FA2E46389F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6066,4 +6232,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA76881E-98BC-41CA-9041-9436D25A75CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E32C6C59-7111-4FF1-B57C-8954CAF8C697}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f64f122a-13cb-4691-a415-cbf7b0e63df3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>